--- a/example/fca_files/015_KyotoUniversity_FSAEJ_CR_FCA_BR-A1070.xlsx
+++ b/example/fca_files/015_KyotoUniversity_FSAEJ_CR_FCA_BR-A1070.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryomei/Projects/cost-calculator/example/fca_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guccie\Desktop\KARTBOX_2020\Cost\Cost 2020\FCA\015_A1_BR\015_A1-3_BR-LO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51366802-73CE-AA46-A660-A0EA977C0F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9169C22F-0D55-424A-84C4-732BFEBE7759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="500" windowWidth="16060" windowHeight="11840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1632" yWindow="168" windowWidth="16056" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Brake Fluid" sheetId="1" r:id="rId1"/>
+    <sheet name="Brake Fluid" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Car">#REF!</definedName>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,159 +38,179 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Mult. Val.</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Fastener</t>
+  </si>
+  <si>
+    <t>P/N Base</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Part Cost</t>
+  </si>
+  <si>
+    <t>Tooling</t>
+  </si>
+  <si>
+    <t>PVF</t>
+  </si>
+  <si>
+    <t>Car #</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Asm Cost</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>FileLink1</t>
+  </si>
+  <si>
+    <t>FileLink2</t>
+  </si>
+  <si>
+    <t>FileLink3</t>
+  </si>
+  <si>
+    <t>Size1</t>
+  </si>
+  <si>
+    <t>Unit1</t>
+  </si>
+  <si>
+    <t>Size2</t>
+  </si>
+  <si>
+    <t>Unit2</t>
+  </si>
+  <si>
+    <t>Area Name</t>
+  </si>
+  <si>
+    <t>Extended Cost</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>Text describing the assembly, especially unique content</t>
+  </si>
+  <si>
+    <t>Kyoto University</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brake System</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brake Fluid</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA1</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fluid, Oil</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>liter</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>University</t>
-  </si>
-  <si>
-    <t>Kyoto University</t>
-  </si>
-  <si>
-    <t>Car #</t>
-  </si>
-  <si>
-    <t>Asm Cost</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Brake System</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Assembly</t>
-  </si>
-  <si>
-    <t>Brake Fluid</t>
-  </si>
-  <si>
-    <t>FileLink1</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>P/N Base</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>A1070</t>
-  </si>
-  <si>
-    <t>FileLink2</t>
-  </si>
-  <si>
-    <t>Extended Cost</t>
-  </si>
-  <si>
-    <t>Suffix</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>FileLink3</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Text describing the assembly, especially unique content</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Item Order</t>
-  </si>
-  <si>
-    <t>Part</t>
-  </si>
-  <si>
-    <t>Part Cost</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Sub Total</t>
-  </si>
-  <si>
-    <t>PA1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Use</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Unit Cost</t>
-  </si>
-  <si>
-    <t>Size1</t>
-  </si>
-  <si>
-    <t>Unit1</t>
-  </si>
-  <si>
-    <t>Size2</t>
-  </si>
-  <si>
-    <t>Unit2</t>
-  </si>
-  <si>
-    <t>Area Name</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>MA1</t>
-  </si>
-  <si>
-    <t>Fluid, Oil</t>
-  </si>
-  <si>
-    <t>liter</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Multiplier</t>
-  </si>
-  <si>
-    <t>Mult. Val.</t>
-  </si>
-  <si>
-    <t>PR1</t>
-  </si>
-  <si>
-    <t>Fastener</t>
-  </si>
-  <si>
-    <t>FA1</t>
-  </si>
-  <si>
-    <t>Tooling</t>
-  </si>
-  <si>
-    <t>PVF</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>FracIncld</t>
-  </si>
-  <si>
-    <t>TO1</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -199,13 +218,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +232,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -239,13 +264,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -329,73 +347,81 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="4" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="39" fontId="5" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Cost_Green" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Currency 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Cost_Green" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Currency 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="桁区切り" xfId="5" builtinId="6"/>
     <cellStyle name="桁区切り [0.00]" xfId="6" builtinId="3"/>
     <cellStyle name="通貨 [0.00]" xfId="7" builtinId="4"/>
@@ -741,423 +767,422 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" style="16" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="16"/>
+    <col min="1" max="1" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="7">
         <v>15</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="17">
+      <c r="M1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="8">
         <f>F10+N14+I18+J22+I26</f>
         <v>0.27</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="9" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="17">
+      <c r="B4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="8">
         <f>N1*N2</f>
         <v>0.27</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="9" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="E8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="11" customFormat="1" ht="16">
-      <c r="A9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="19">
+    </row>
+    <row r="9" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25">
         <f>D9*E9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="E10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="20">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="17">
         <f>SUM(F9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="7" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="G12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="I12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="14" t="s">
+      <c r="J12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="D13" s="2">
         <v>0.75</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="1">
         <v>0.36</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="24">
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="20">
         <v>1</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="14">
         <f>D13*E13*M13</f>
         <v>0.27</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="6" customFormat="1">
-      <c r="M14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="25">
+    <row r="14" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="21">
         <f>SUM(N13:N13)</f>
         <v>0.27</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="6" customFormat="1">
-      <c r="A16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="7" t="s">
+    <row r="16" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" ht="16">
-      <c r="A17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="18">
+      <c r="C17" s="27"/>
+      <c r="D17" s="23">
         <v>0</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="18">
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23">
         <f>IF(H17&lt;&gt;"",D17*F17*H17,D17*F17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="6" customFormat="1">
-      <c r="H18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="26">
+    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1">
-      <c r="A20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="7" t="s">
+    <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="F20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="G20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="27">
+      <c r="I20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29">
         <v>0</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="21">
+      <c r="E21" s="28"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33">
         <f>D21*I21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="6" customFormat="1">
-      <c r="I22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="28">
+    <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="H23" s="2"/>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" s="6" customFormat="1">
-      <c r="A24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="7" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" ht="16">
-      <c r="A25" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="18">
+      <c r="C25" s="22"/>
+      <c r="D25" s="23">
         <v>0</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="18">
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="6" customFormat="1">
-      <c r="H26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="26">
+    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="35">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="70" fitToHeight="0" orientation="landscape"/>
+  <pageSetup scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>